--- a/Excel_v/upload_ex/ตัวอย่างอัพโหลด.xlsx
+++ b/Excel_v/upload_ex/ตัวอย่างอัพโหลด.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UNITY\Desktop\ทะเบียนครุภณฑ์\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UNITY\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6315DF37-5D31-48C2-AB45-09D694B562F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F219F193-DB94-4ECD-A000-4C8792197BBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7B05FE32-C48B-45C4-B468-AC87F74336FA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="75">
   <si>
     <t>รายการที่</t>
   </si>
@@ -121,9 +121,6 @@
   </si>
   <si>
     <t>เลขที่เอกสาร</t>
-  </si>
-  <si>
-    <t>2/58</t>
   </si>
   <si>
     <t>ชุดคอมพิวเตอร์อเนกประสงค์</t>
@@ -175,15 +172,9 @@
     <t>7400-010-0002-05-59</t>
   </si>
   <si>
-    <t>28</t>
-  </si>
-  <si>
     <t>คอมใช้เรียนเสริม</t>
   </si>
   <si>
-    <t>คอมพิวเตอร์ all in one 2020</t>
-  </si>
-  <si>
     <t>รุ่น ACER6558</t>
   </si>
   <si>
@@ -205,13 +196,61 @@
     <t>งบประมาณ68</t>
   </si>
   <si>
-    <t>28.1-28.5</t>
-  </si>
-  <si>
-    <t>28.8</t>
-  </si>
-  <si>
-    <t>28.11</t>
+    <t>2/59</t>
+  </si>
+  <si>
+    <t>ไม่กำหนดห้อง</t>
+  </si>
+  <si>
+    <t>เคลื่อนย้ายได้</t>
+  </si>
+  <si>
+    <t>งบประมาณ69</t>
+  </si>
+  <si>
+    <t>ตู้ทำด้วยเหล็กหนาพิเศษ</t>
+  </si>
+  <si>
+    <t>ตู้</t>
+  </si>
+  <si>
+    <t>ไม่กำหนด</t>
+  </si>
+  <si>
+    <t>สถานะครุภัณฑ์</t>
+  </si>
+  <si>
+    <t>ชำรุด</t>
+  </si>
+  <si>
+    <t>ใช้งานได้</t>
+  </si>
+  <si>
+    <t>ตัวย่อคณะ</t>
+  </si>
+  <si>
+    <t>602-604,606</t>
+  </si>
+  <si>
+    <t>ตู้เก็บเอกสารex</t>
+  </si>
+  <si>
+    <t>ตู้เก็บเอกสารer</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>26.1-26.5</t>
+  </si>
+  <si>
+    <t>26.8</t>
+  </si>
+  <si>
+    <t>26.11</t>
+  </si>
+  <si>
+    <t>dd</t>
   </si>
 </sst>
 </file>
@@ -261,7 +300,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -269,11 +308,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -294,6 +348,10 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -608,448 +666,586 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD691D95-B409-4823-A7B7-D03D58910DC2}">
-  <dimension ref="A1:AJ5"/>
+  <dimension ref="A1:AK7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X23" sqref="X23"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="26.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
     <col min="5" max="5" width="18.5703125" customWidth="1"/>
     <col min="6" max="6" width="24.42578125" customWidth="1"/>
     <col min="7" max="7" width="26.28515625" customWidth="1"/>
-    <col min="8" max="8" width="19" customWidth="1"/>
-    <col min="10" max="10" width="23.7109375" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.7109375" customWidth="1"/>
+    <col min="8" max="9" width="15.85546875" customWidth="1"/>
+    <col min="10" max="10" width="20" customWidth="1"/>
+    <col min="11" max="11" width="20.42578125" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" customWidth="1"/>
+    <col min="13" max="13" width="23" customWidth="1"/>
+    <col min="14" max="14" width="21.85546875" customWidth="1"/>
     <col min="15" max="15" width="16.42578125" customWidth="1"/>
     <col min="16" max="16" width="15.7109375" customWidth="1"/>
-    <col min="17" max="17" width="16.5703125" customWidth="1"/>
+    <col min="17" max="17" width="20" customWidth="1"/>
     <col min="18" max="18" width="18.5703125" customWidth="1"/>
     <col min="19" max="19" width="15.85546875" customWidth="1"/>
     <col min="20" max="20" width="19.140625" customWidth="1"/>
+    <col min="21" max="21" width="21.85546875" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" customWidth="1"/>
     <col min="23" max="23" width="24.140625" customWidth="1"/>
-    <col min="26" max="26" width="22.5703125" customWidth="1"/>
-    <col min="27" max="27" width="12.42578125" customWidth="1"/>
+    <col min="24" max="24" width="21.7109375" customWidth="1"/>
+    <col min="25" max="25" width="13.7109375" customWidth="1"/>
+    <col min="26" max="26" width="11.7109375" customWidth="1"/>
+    <col min="27" max="27" width="21.42578125" customWidth="1"/>
+    <col min="28" max="28" width="14" customWidth="1"/>
     <col min="30" max="30" width="11.28515625" customWidth="1"/>
+    <col min="31" max="31" width="16" customWidth="1"/>
+    <col min="32" max="32" width="19.7109375" customWidth="1"/>
+    <col min="33" max="33" width="21.5703125" customWidth="1"/>
+    <col min="34" max="34" width="18.5703125" customWidth="1"/>
+    <col min="35" max="35" width="12.7109375" customWidth="1"/>
+    <col min="36" max="36" width="18.42578125" customWidth="1"/>
+    <col min="37" max="37" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36">
-      <c r="A1" t="s">
+    <row r="1" spans="1:37">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="X1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK1" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37">
+      <c r="A2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="P1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" t="s">
-        <v>18</v>
-      </c>
-      <c r="W1" t="s">
-        <v>2</v>
-      </c>
-      <c r="X1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:36">
-      <c r="A2" s="1" t="s">
+      <c r="M2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="1">
+        <v>45000</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N2" s="1">
-        <v>45000</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="W2" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="X2" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y2" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z2" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1">
-        <v>45000</v>
-      </c>
+      <c r="AB2" s="1"/>
       <c r="AC2" s="1">
         <v>45000</v>
       </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AD2" s="1">
+        <v>45000</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>16.7</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37">
+      <c r="A3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" s="1">
+        <v>45000</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y3" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="AE2" s="1">
-        <v>16.7</v>
-      </c>
-      <c r="AF2" s="1" t="s">
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1">
+        <v>25000</v>
+      </c>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>16.5</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37">
+      <c r="A4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AG2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:36">
-      <c r="A3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="L4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" s="1">
+        <v>45000</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="N3" s="1">
-        <v>45000</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="W3" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="X3" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1">
-        <v>25000</v>
-      </c>
-      <c r="AC3" s="1"/>
-      <c r="AD3" s="1" t="s">
+      <c r="U4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="AE3" s="1">
-        <v>16.5</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:36">
-      <c r="A4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="N4" s="1">
-        <v>45000</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="W4" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="1">
-        <v>35000</v>
-      </c>
+      <c r="AA4" s="6">
+        <v>26</v>
+      </c>
+      <c r="AB4" s="1"/>
       <c r="AC4" s="1">
         <v>35000</v>
       </c>
-      <c r="AD4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE4" s="1">
+      <c r="AD4" s="1">
+        <v>35000</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF4" s="1">
         <v>17</v>
       </c>
-      <c r="AF4" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="AG4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AH4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AI4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AJ4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="AK4" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:36">
-      <c r="W5">
-        <v>28</v>
-      </c>
-      <c r="AC5">
-        <v>30000</v>
-      </c>
+    <row r="5" spans="1:37">
+      <c r="A5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O5" s="1">
+        <v>3500</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="X5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA5" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37">
+      <c r="A6" s="2"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+    </row>
+    <row r="7" spans="1:37">
+      <c r="A7" s="2"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="8"/>
+      <c r="E7" s="5"/>
+      <c r="G7" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel_v/upload_ex/ตัวอย่างอัพโหลด.xlsx
+++ b/Excel_v/upload_ex/ตัวอย่างอัพโหลด.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UNITY\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F219F193-DB94-4ECD-A000-4C8792197BBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D8F4EA8-7E39-4E47-8655-9C00DE5EF32C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7B05FE32-C48B-45C4-B468-AC87F74336FA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="77">
   <si>
     <t>รายการที่</t>
   </si>
@@ -37,9 +37,6 @@
   </si>
   <si>
     <t>หมายเลขครุภัณฑ์</t>
-  </si>
-  <si>
-    <t>ชื่อชุดครุภัณฑ์</t>
   </si>
   <si>
     <t>ชื่อเรียกครุภัณฑ์</t>
@@ -163,9 +160,6 @@
     <t>วท 2/2551</t>
   </si>
   <si>
-    <t>ราคารวมชุด</t>
-  </si>
-  <si>
     <t>10/08/2020</t>
   </si>
   <si>
@@ -250,7 +244,19 @@
     <t>26.11</t>
   </si>
   <si>
-    <t>dd</t>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>ชื่อ-สกุลผู้รับผิดชอบ</t>
+  </si>
+  <si>
+    <t>ชนาเนตร อรรถยุกติ</t>
+  </si>
+  <si>
+    <t>ชื่อบริษัทผู้ค้า</t>
+  </si>
+  <si>
+    <t>บริษัท เจนบี แมเนจเม้นท์ กรุ๊ป จำกัด</t>
   </si>
 </sst>
 </file>
@@ -666,7 +672,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD691D95-B409-4823-A7B7-D03D58910DC2}">
-  <dimension ref="A1:AK7"/>
+  <dimension ref="A1:AL7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
@@ -676,9 +682,9 @@
   <cols>
     <col min="2" max="2" width="26.140625" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
-    <col min="6" max="6" width="24.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="30.42578125" customWidth="1"/>
     <col min="7" max="7" width="26.28515625" customWidth="1"/>
     <col min="8" max="9" width="15.85546875" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
@@ -687,7 +693,7 @@
     <col min="13" max="13" width="23" customWidth="1"/>
     <col min="14" max="14" width="21.85546875" customWidth="1"/>
     <col min="15" max="15" width="16.42578125" customWidth="1"/>
-    <col min="16" max="16" width="15.7109375" customWidth="1"/>
+    <col min="16" max="16" width="18.5703125" customWidth="1"/>
     <col min="17" max="17" width="20" customWidth="1"/>
     <col min="18" max="18" width="18.5703125" customWidth="1"/>
     <col min="19" max="19" width="15.85546875" customWidth="1"/>
@@ -698,8 +704,8 @@
     <col min="24" max="24" width="21.7109375" customWidth="1"/>
     <col min="25" max="25" width="13.7109375" customWidth="1"/>
     <col min="26" max="26" width="11.7109375" customWidth="1"/>
-    <col min="27" max="27" width="21.42578125" customWidth="1"/>
-    <col min="28" max="28" width="14" customWidth="1"/>
+    <col min="27" max="27" width="16.140625" customWidth="1"/>
+    <col min="28" max="28" width="26.85546875" customWidth="1"/>
     <col min="30" max="30" width="11.28515625" customWidth="1"/>
     <col min="31" max="31" width="16" customWidth="1"/>
     <col min="32" max="32" width="19.7109375" customWidth="1"/>
@@ -710,7 +716,7 @@
     <col min="37" max="37" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:38">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -724,495 +730,510 @@
         <v>3</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F1" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="N1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="O1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="P1" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="R1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="X1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL1" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38">
+      <c r="A2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="Q1" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="T1" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="U1" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="V1" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="X1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y1" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z1" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA1" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB1" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC1" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD1" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AE1" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF1" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="AG1" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="AH1" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="AI1" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="AJ1" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="AK1" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:37">
-      <c r="A2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="J2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="O2" s="1">
         <v>45000</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="Q2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="S2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="S2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="U2" s="3" t="s">
+      <c r="V2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="V2" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="X2" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y2" s="5" t="s">
+      <c r="AA2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="Z2" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA2" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1">
-        <v>45000</v>
-      </c>
+      <c r="AB2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC2" s="1"/>
       <c r="AD2" s="1">
         <v>45000</v>
       </c>
-      <c r="AE2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AF2" s="1">
+      <c r="AE2" s="1">
+        <v>45000</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG2" s="1">
         <v>16.7</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38">
+      <c r="A3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AH2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:37">
-      <c r="A3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="O3" s="1">
         <v>45000</v>
       </c>
       <c r="P3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1">
+        <v>25000</v>
+      </c>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>16.5</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38">
+      <c r="A4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Q3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="X3" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y3" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB3" s="1"/>
-      <c r="AC3" s="1">
-        <v>25000</v>
-      </c>
-      <c r="AD3" s="1"/>
-      <c r="AE3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF3" s="1">
-        <v>16.5</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:37">
-      <c r="A4" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N4" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="O4" s="1">
         <v>45000</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="Q4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="R4" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="S4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="X4" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA4" s="6">
+        <v>62</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y4" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB4" s="6">
         <v>26</v>
       </c>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="1">
-        <v>35000</v>
-      </c>
+      <c r="AC4" s="1"/>
       <c r="AD4" s="1">
         <v>35000</v>
       </c>
-      <c r="AE4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AF4" s="1">
+      <c r="AE4" s="1">
+        <v>35000</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG4" s="1">
         <v>17</v>
       </c>
-      <c r="AG4" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="AH4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AI4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AJ4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AK4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="AL4" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:37">
+    <row r="5" spans="1:38">
       <c r="A5" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C5" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>69</v>
-      </c>
       <c r="I5" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O5" s="1">
         <v>3500</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="X5" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA5" s="6" t="s">
-        <v>74</v>
+        <v>60</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB5" s="6" t="s">
+        <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:37">
+    <row r="6" spans="1:38">
       <c r="A6" s="2"/>
       <c r="B6" s="1"/>
       <c r="C6" s="8"/>
@@ -1236,7 +1257,7 @@
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
     </row>
-    <row r="7" spans="1:37">
+    <row r="7" spans="1:38">
       <c r="A7" s="2"/>
       <c r="B7" s="5"/>
       <c r="C7" s="8"/>
